--- a/biology/Médecine/Maladie_de_Wagner/Maladie_de_Wagner.xlsx
+++ b/biology/Médecine/Maladie_de_Wagner/Maladie_de_Wagner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Wagner est une maladie vitréo-rétinienne rare, à transmission héréditaire. C’est un trouble du tissu conjonctif qui affecte le collagène.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie doit son nom à l’ophtalmologue suisse Hans Wagner. Ce médecin décrivit en 1938 une famille des environs de Zurich, dont les membres présentaient les symptômes de la maladie. Depuis, une cinquantaine de familles (dont certaines sont très nombreuses) et d’individus ont été décrits[pas clair].
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie se caractérise principalement par des anomalies du vitré (absence de structure normale) qui apparaît optiquement vide. L’absence ou la faiblesse des vaisseaux sanguins dans la périphérie rétinienne provoquent un affaiblissement de la rétine, pouvant entraîner la perte de la vision de nuit. La maladie de Wagner favorise l’apparition précoce de la cataracte (dès l’âge de 30 ans) et l’atrophie de la choroïde. La plupart des patients atteints de la maladie de Wagner souffrent de myopie variant de modérée (&gt; -2) à forte  (&gt; -6).
 Toutes les personnes ayant la maladie de Wagner ne sont pas atteintes au même degré : environ un quart d’entre elles n’en ressent que faiblement ou pas du tout les effets, la moitié environ est modérément gênée et le quart restant a des problèmes graves, comme le décollement de la rétine. La maladie a une évolution progressive due à l’augmentation du nombre de complications et de phénomènes dégénératifs au cours de la vie. 
@@ -576,7 +592,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site pour les médecins, chercheurs et malades
  Portail de la médecine   Portail de la biologie                    </t>
